--- a/data/azerbaijan_8.xlsx
+++ b/data/azerbaijan_8.xlsx
@@ -1,30 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nico_7/Desktop/calendar-opt-master/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fdduarte/Development/universidad/tesis/calendar-opt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E69F1BC-46F2-804A-A6C7-118873A7672D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E6B0F5-CCAF-3347-9EAD-5C69859F8E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Resultado" sheetId="1" r:id="rId1"/>
+    <sheet name="Resultados" sheetId="1" r:id="rId1"/>
     <sheet name="Equipos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Resultado!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Resultados!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="35">
   <si>
     <t>Jornada</t>
   </si>
@@ -41,90 +54,6 @@
     <t>Resultado</t>
   </si>
   <si>
-    <t>1. Round</t>
-  </si>
-  <si>
-    <t>2. Round</t>
-  </si>
-  <si>
-    <t>3. Round</t>
-  </si>
-  <si>
-    <t>4. Round</t>
-  </si>
-  <si>
-    <t>5. Round</t>
-  </si>
-  <si>
-    <t>6. Round</t>
-  </si>
-  <si>
-    <t>7. Round</t>
-  </si>
-  <si>
-    <t>8. Round</t>
-  </si>
-  <si>
-    <t>9. Round</t>
-  </si>
-  <si>
-    <t>10. Round</t>
-  </si>
-  <si>
-    <t>11. Round</t>
-  </si>
-  <si>
-    <t>12. Round</t>
-  </si>
-  <si>
-    <t>13. Round</t>
-  </si>
-  <si>
-    <t>14. Round</t>
-  </si>
-  <si>
-    <t>15. Round</t>
-  </si>
-  <si>
-    <t>16. Round</t>
-  </si>
-  <si>
-    <t>17. Round</t>
-  </si>
-  <si>
-    <t>18. Round</t>
-  </si>
-  <si>
-    <t>19. Round</t>
-  </si>
-  <si>
-    <t>20. Round</t>
-  </si>
-  <si>
-    <t>21. Round</t>
-  </si>
-  <si>
-    <t>22. Round</t>
-  </si>
-  <si>
-    <t>23. Round</t>
-  </si>
-  <si>
-    <t>24. Round</t>
-  </si>
-  <si>
-    <t>25. Round</t>
-  </si>
-  <si>
-    <t>26. Round</t>
-  </si>
-  <si>
-    <t>27. Round</t>
-  </si>
-  <si>
-    <t>28. Round</t>
-  </si>
-  <si>
     <t>Sabah FK</t>
   </si>
   <si>
@@ -185,19 +114,7 @@
     <t xml:space="preserve">3:1 </t>
   </si>
   <si>
-    <t xml:space="preserve">2:3 </t>
-  </si>
-  <si>
     <t xml:space="preserve">4:0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3:3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3:2 </t>
   </si>
   <si>
     <t xml:space="preserve">0:4 </t>
@@ -312,7 +229,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -632,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView zoomScale="66" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -662,8 +579,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>32</v>
+      <c r="A2">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -671,51 +588,51 @@
         <v>44702</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>31</v>
+      <c r="A7">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -723,51 +640,51 @@
         <v>44696</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>30</v>
+      <c r="A12">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -775,24 +692,24 @@
         <v>44689</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -800,29 +717,29 @@
         <v>44690</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>29</v>
+      <c r="A17">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -830,24 +747,24 @@
         <v>44684</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -855,29 +772,29 @@
         <v>44685</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>28</v>
+      <c r="A22">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -885,51 +802,51 @@
         <v>44675</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>27</v>
+      <c r="A27">
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -937,24 +854,24 @@
         <v>44666</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -962,29 +879,29 @@
         <v>44667</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>26</v>
+      <c r="A32">
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -992,24 +909,24 @@
         <v>44660</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1017,29 +934,29 @@
         <v>44661</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>25</v>
+      <c r="A37">
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1047,24 +964,24 @@
         <v>44653</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1072,29 +989,29 @@
         <v>44654</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>24</v>
+      <c r="A42">
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1102,24 +1019,24 @@
         <v>44638</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1127,29 +1044,29 @@
         <v>44639</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>23</v>
+      <c r="A47">
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1157,24 +1074,24 @@
         <v>44632</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1182,13 +1099,13 @@
         <v>44633</v>
       </c>
       <c r="C50" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1196,18 +1113,18 @@
         <v>44634</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="E51" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>22</v>
+      <c r="A52">
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1215,24 +1132,24 @@
         <v>44625</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1240,29 +1157,29 @@
         <v>44626</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>21</v>
+      <c r="A57">
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1270,24 +1187,24 @@
         <v>44619</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1295,29 +1212,29 @@
         <v>44620</v>
       </c>
       <c r="C60" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>20</v>
+      <c r="A62">
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1325,24 +1242,24 @@
         <v>44611</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E64" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -1350,13 +1267,13 @@
         <v>44612</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -1364,18 +1281,18 @@
         <v>44693</v>
       </c>
       <c r="C66" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>19</v>
+      <c r="A67">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -1383,24 +1300,24 @@
         <v>44599</v>
       </c>
       <c r="C68" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -1408,810 +1325,124 @@
         <v>44600</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E70" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="2">
-        <v>44545</v>
-      </c>
-      <c r="C73" t="s">
-        <v>36</v>
-      </c>
-      <c r="D73" t="s">
-        <v>35</v>
-      </c>
-      <c r="E73" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C74" t="s">
-        <v>37</v>
-      </c>
-      <c r="D74" t="s">
-        <v>40</v>
-      </c>
-      <c r="E74" t="s">
-        <v>55</v>
-      </c>
+      <c r="B73" s="2"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="2">
-        <v>44546</v>
-      </c>
-      <c r="C75" t="s">
-        <v>39</v>
-      </c>
-      <c r="D75" t="s">
-        <v>33</v>
-      </c>
-      <c r="E75" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C76" t="s">
-        <v>38</v>
-      </c>
-      <c r="D76" t="s">
-        <v>34</v>
-      </c>
-      <c r="E76" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>17</v>
-      </c>
+      <c r="B75" s="2"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="2">
-        <v>44534</v>
-      </c>
-      <c r="C78" t="s">
-        <v>40</v>
-      </c>
-      <c r="D78" t="s">
-        <v>39</v>
-      </c>
-      <c r="E78" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C79" t="s">
-        <v>38</v>
-      </c>
-      <c r="D79" t="s">
-        <v>33</v>
-      </c>
-      <c r="E79" t="s">
-        <v>60</v>
-      </c>
+      <c r="B78" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="2">
-        <v>44535</v>
-      </c>
-      <c r="C80" t="s">
-        <v>35</v>
-      </c>
-      <c r="D80" t="s">
-        <v>37</v>
-      </c>
-      <c r="E80" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C81" t="s">
-        <v>34</v>
-      </c>
-      <c r="D81" t="s">
-        <v>36</v>
-      </c>
-      <c r="E81" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="2">
-        <v>44527</v>
-      </c>
-      <c r="C83" t="s">
-        <v>33</v>
-      </c>
-      <c r="D83" t="s">
-        <v>40</v>
-      </c>
-      <c r="E83" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D84" t="s">
-        <v>35</v>
-      </c>
-      <c r="E84" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B85" s="2">
-        <v>44528</v>
-      </c>
-      <c r="C85" t="s">
-        <v>37</v>
-      </c>
-      <c r="D85" t="s">
-        <v>34</v>
-      </c>
-      <c r="E85" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B86" s="2">
-        <v>44529</v>
-      </c>
-      <c r="C86" t="s">
-        <v>36</v>
-      </c>
-      <c r="D86" t="s">
-        <v>38</v>
-      </c>
-      <c r="E86" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B88" s="2">
-        <v>44519</v>
-      </c>
-      <c r="C88" t="s">
-        <v>38</v>
-      </c>
-      <c r="D88" t="s">
-        <v>40</v>
-      </c>
-      <c r="E88" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B89" s="2">
-        <v>44520</v>
-      </c>
-      <c r="C89" t="s">
-        <v>34</v>
-      </c>
-      <c r="D89" t="s">
-        <v>39</v>
-      </c>
-      <c r="E89" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C90" t="s">
-        <v>35</v>
-      </c>
-      <c r="D90" t="s">
-        <v>33</v>
-      </c>
-      <c r="E90" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B91" s="2">
-        <v>44521</v>
-      </c>
-      <c r="C91" t="s">
-        <v>36</v>
-      </c>
-      <c r="D91" t="s">
-        <v>37</v>
-      </c>
-      <c r="E91" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B93" s="2">
-        <v>44506</v>
-      </c>
-      <c r="C93" t="s">
-        <v>33</v>
-      </c>
-      <c r="D93" t="s">
-        <v>34</v>
-      </c>
-      <c r="E93" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C94" t="s">
-        <v>40</v>
-      </c>
-      <c r="D94" t="s">
-        <v>35</v>
-      </c>
-      <c r="E94" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="2">
-        <v>44507</v>
-      </c>
-      <c r="C95" t="s">
-        <v>39</v>
-      </c>
-      <c r="D95" t="s">
-        <v>36</v>
-      </c>
-      <c r="E95" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C96" t="s">
-        <v>37</v>
-      </c>
-      <c r="D96" t="s">
-        <v>38</v>
-      </c>
-      <c r="E96" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B98" s="2">
-        <v>44499</v>
-      </c>
-      <c r="C98" t="s">
-        <v>34</v>
-      </c>
-      <c r="D98" t="s">
-        <v>40</v>
-      </c>
-      <c r="E98" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C99" t="s">
-        <v>38</v>
-      </c>
-      <c r="D99" t="s">
-        <v>35</v>
-      </c>
-      <c r="E99" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B100" s="2">
-        <v>44500</v>
-      </c>
-      <c r="C100" t="s">
-        <v>36</v>
-      </c>
-      <c r="D100" t="s">
-        <v>33</v>
-      </c>
-      <c r="E100" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C101" t="s">
-        <v>37</v>
-      </c>
-      <c r="D101" t="s">
-        <v>39</v>
-      </c>
-      <c r="E101" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B103" s="2">
-        <v>44492</v>
-      </c>
-      <c r="C103" t="s">
-        <v>33</v>
-      </c>
-      <c r="D103" t="s">
-        <v>37</v>
-      </c>
-      <c r="E103" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C104" t="s">
-        <v>35</v>
-      </c>
-      <c r="D104" t="s">
-        <v>34</v>
-      </c>
-      <c r="E104" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B105" s="2">
-        <v>44493</v>
-      </c>
-      <c r="C105" t="s">
-        <v>40</v>
-      </c>
-      <c r="D105" t="s">
-        <v>36</v>
-      </c>
-      <c r="E105" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="2">
-        <v>44494</v>
-      </c>
-      <c r="C106" t="s">
-        <v>39</v>
-      </c>
-      <c r="D106" t="s">
-        <v>38</v>
-      </c>
-      <c r="E106" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B108" s="2">
-        <v>44485</v>
-      </c>
-      <c r="C108" t="s">
-        <v>39</v>
-      </c>
-      <c r="D108" t="s">
-        <v>40</v>
-      </c>
-      <c r="E108" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C109" t="s">
-        <v>36</v>
-      </c>
-      <c r="D109" t="s">
-        <v>34</v>
-      </c>
-      <c r="E109" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B110" s="2">
-        <v>44486</v>
-      </c>
-      <c r="C110" t="s">
-        <v>37</v>
-      </c>
-      <c r="D110" t="s">
-        <v>35</v>
-      </c>
-      <c r="E110" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C111" t="s">
-        <v>33</v>
-      </c>
-      <c r="D111" t="s">
-        <v>38</v>
-      </c>
-      <c r="E111" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B113" s="2">
-        <v>44470</v>
-      </c>
-      <c r="C113" t="s">
-        <v>34</v>
-      </c>
-      <c r="D113" t="s">
-        <v>37</v>
-      </c>
-      <c r="E113" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B114" s="2">
-        <v>44471</v>
-      </c>
-      <c r="C114" t="s">
-        <v>40</v>
-      </c>
-      <c r="D114" t="s">
-        <v>33</v>
-      </c>
-      <c r="E114" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C115" t="s">
-        <v>35</v>
-      </c>
-      <c r="D115" t="s">
-        <v>39</v>
-      </c>
-      <c r="E115" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B116" s="2">
-        <v>44472</v>
-      </c>
-      <c r="C116" t="s">
-        <v>38</v>
-      </c>
-      <c r="D116" t="s">
-        <v>36</v>
-      </c>
-      <c r="E116" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B118" s="2">
-        <v>44464</v>
-      </c>
-      <c r="C118" t="s">
-        <v>40</v>
-      </c>
-      <c r="D118" t="s">
-        <v>38</v>
-      </c>
-      <c r="E118" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C119" t="s">
-        <v>39</v>
-      </c>
-      <c r="D119" t="s">
-        <v>34</v>
-      </c>
-      <c r="E119" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B120" s="2">
-        <v>44465</v>
-      </c>
-      <c r="C120" t="s">
-        <v>33</v>
-      </c>
-      <c r="D120" t="s">
-        <v>35</v>
-      </c>
-      <c r="E120" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C121" t="s">
-        <v>37</v>
-      </c>
-      <c r="D121" t="s">
-        <v>36</v>
-      </c>
-      <c r="E121" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B123" s="2">
-        <v>44457</v>
-      </c>
-      <c r="C123" t="s">
-        <v>36</v>
-      </c>
-      <c r="D123" t="s">
-        <v>39</v>
-      </c>
-      <c r="E123" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C124" t="s">
-        <v>34</v>
-      </c>
-      <c r="D124" t="s">
-        <v>33</v>
-      </c>
-      <c r="E124" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B125" s="2">
-        <v>44458</v>
-      </c>
-      <c r="C125" t="s">
-        <v>35</v>
-      </c>
-      <c r="D125" t="s">
-        <v>40</v>
-      </c>
-      <c r="E125" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B126" s="2">
-        <v>44459</v>
-      </c>
-      <c r="C126" t="s">
-        <v>38</v>
-      </c>
-      <c r="D126" t="s">
-        <v>37</v>
-      </c>
-      <c r="E126" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B128" s="2">
-        <v>44450</v>
-      </c>
-      <c r="C128" t="s">
-        <v>33</v>
-      </c>
-      <c r="D128" t="s">
-        <v>36</v>
-      </c>
-      <c r="E128" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C129" t="s">
-        <v>40</v>
-      </c>
-      <c r="D129" t="s">
-        <v>34</v>
-      </c>
-      <c r="E129" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B130" s="2">
-        <v>44451</v>
-      </c>
-      <c r="C130" t="s">
-        <v>39</v>
-      </c>
-      <c r="D130" t="s">
-        <v>37</v>
-      </c>
-      <c r="E130" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C131" t="s">
-        <v>35</v>
-      </c>
-      <c r="D131" t="s">
-        <v>38</v>
-      </c>
-      <c r="E131" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B133" s="2">
-        <v>44429</v>
-      </c>
-      <c r="C133" t="s">
-        <v>36</v>
-      </c>
-      <c r="D133" t="s">
-        <v>40</v>
-      </c>
-      <c r="E133" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C134" t="s">
-        <v>37</v>
-      </c>
-      <c r="D134" t="s">
-        <v>33</v>
-      </c>
-      <c r="E134" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B135" s="2">
-        <v>44430</v>
-      </c>
-      <c r="C135" t="s">
-        <v>34</v>
-      </c>
-      <c r="D135" t="s">
-        <v>35</v>
-      </c>
-      <c r="E135" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C136" t="s">
-        <v>38</v>
-      </c>
-      <c r="D136" t="s">
-        <v>39</v>
-      </c>
-      <c r="E136" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B138" s="2">
-        <v>44422</v>
-      </c>
-      <c r="C138" t="s">
-        <v>33</v>
-      </c>
-      <c r="D138" t="s">
-        <v>39</v>
-      </c>
-      <c r="E138" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C139" t="s">
-        <v>40</v>
-      </c>
-      <c r="D139" t="s">
-        <v>37</v>
-      </c>
-      <c r="E139" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B140" s="2">
-        <v>44423</v>
-      </c>
-      <c r="C140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D140" t="s">
-        <v>38</v>
-      </c>
-      <c r="E140" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C141" t="s">
-        <v>35</v>
-      </c>
-      <c r="D141" t="s">
-        <v>36</v>
-      </c>
-      <c r="E141" t="s">
-        <v>44</v>
-      </c>
+      <c r="B80" s="2"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="2"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" s="2"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" s="2"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91" s="2"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" s="2"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95" s="2"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" s="2"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B100" s="2"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B103" s="2"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B105" s="2"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B106" s="2"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B108" s="2"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B110" s="2"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B114" s="2"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B116" s="2"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B118" s="2"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B120" s="2"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B123" s="2"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B125" s="2"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B126" s="2"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B128" s="2"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B130" s="2"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B133" s="2"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B135" s="2"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B138" s="2"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B140" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E141" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -2223,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C56967-9ADA-EB4F-8B61-1C0866C2CC20}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2235,16 +1466,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2252,13 +1483,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <f>33+16</f>
+        <v>49</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -2270,13 +1502,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <f>26+8</f>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>7</v>
@@ -2288,13 +1521,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <f>22+11</f>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>7</v>
@@ -2306,13 +1540,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <f>22+16</f>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -2324,13 +1559,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <f>17+6</f>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -2342,13 +1578,14 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <f>14+9</f>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -2360,13 +1597,14 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <f>12+1</f>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -2378,12 +1616,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D9">
+        <f>10+0</f>
         <v>10</v>
       </c>
       <c r="E9">

--- a/data/azerbaijan_8.xlsx
+++ b/data/azerbaijan_8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fdduarte/Development/universidad/tesis/calendar-opt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E6B0F5-CCAF-3347-9EAD-5C69859F8E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275D4E6A-9D6D-DD47-B2FE-81AAC151FE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="43">
   <si>
     <t>Jornada</t>
   </si>
@@ -142,6 +142,30 @@
   </si>
   <si>
     <t>Puntos al finalizar la primera rueda</t>
+  </si>
+  <si>
+    <t>QAR</t>
+  </si>
+  <si>
+    <t>GAB</t>
+  </si>
+  <si>
+    <t>ZIR</t>
+  </si>
+  <si>
+    <t>NEF</t>
+  </si>
+  <si>
+    <t>SAB</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>SEB</t>
   </si>
 </sst>
 </file>
@@ -551,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -588,43 +612,52 @@
         <v>44702</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>44702</v>
+      </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>44702</v>
+      </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>44702</v>
+      </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
@@ -637,46 +670,55 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
-        <v>44696</v>
+        <v>44702</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>44702</v>
+      </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>44702</v>
+      </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>44702</v>
+      </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
@@ -689,24 +731,27 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
-        <v>44689</v>
+        <v>44702</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <v>44702</v>
+      </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
         <v>23</v>
@@ -714,24 +759,27 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
-        <v>44690</v>
+        <v>44702</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <v>44702</v>
+      </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
@@ -744,24 +792,27 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
-        <v>44684</v>
+        <v>44702</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
+        <v>44702</v>
+      </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
         <v>15</v>
@@ -769,24 +820,27 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
-        <v>44685</v>
+        <v>44702</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>44702</v>
+      </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -799,46 +853,55 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
-        <v>44675</v>
+        <v>44702</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
+        <v>44702</v>
+      </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="2">
+        <v>44702</v>
+      </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="2">
+        <v>44702</v>
+      </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
@@ -851,24 +914,27 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
-        <v>44666</v>
+        <v>44702</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="2">
+        <v>44702</v>
+      </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
         <v>29</v>
@@ -876,24 +942,27 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
-        <v>44667</v>
+        <v>44702</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="2">
+        <v>44702</v>
+      </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="E31" t="s">
         <v>21</v>
@@ -906,24 +975,27 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
-        <v>44660</v>
+        <v>44702</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E33" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="2">
+        <v>44702</v>
+      </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
         <v>24</v>
@@ -931,24 +1003,27 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
-        <v>44661</v>
+        <v>44702</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E35" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="2">
+        <v>44702</v>
+      </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E36" t="s">
         <v>20</v>
@@ -961,24 +1036,27 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
-        <v>44653</v>
+        <v>44702</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E38" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="2">
+        <v>44702</v>
+      </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="E39" t="s">
         <v>27</v>
@@ -986,24 +1064,27 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
-        <v>44654</v>
+        <v>44702</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E40" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="2">
+        <v>44702</v>
+      </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E41" t="s">
         <v>15</v>
@@ -1016,24 +1097,27 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
-        <v>44638</v>
+        <v>44702</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E43" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="2">
+        <v>44702</v>
+      </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E44" t="s">
         <v>25</v>
@@ -1041,24 +1125,27 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B45" s="2">
-        <v>44639</v>
+        <v>44702</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E45" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="2">
+        <v>44702</v>
+      </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E46" t="s">
         <v>27</v>
@@ -1071,24 +1158,27 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" s="2">
-        <v>44632</v>
+        <v>44702</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E48" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="2">
+        <v>44702</v>
+      </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E49" t="s">
         <v>13</v>
@@ -1096,13 +1186,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B50" s="2">
-        <v>44633</v>
+        <v>44702</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E50" t="s">
         <v>19</v>
@@ -1110,13 +1200,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B51" s="2">
-        <v>44634</v>
+        <v>44702</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D51" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E51" t="s">
         <v>23</v>
@@ -1129,24 +1219,27 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B53" s="2">
-        <v>44625</v>
+        <v>44702</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="2">
+        <v>44702</v>
+      </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E54" t="s">
         <v>18</v>
@@ -1154,24 +1247,27 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
-        <v>44626</v>
+        <v>44702</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="E55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="2">
+        <v>44702</v>
+      </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E56" t="s">
         <v>28</v>
@@ -1184,24 +1280,27 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B58" s="2">
-        <v>44619</v>
+        <v>44702</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E58" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="2">
+        <v>44702</v>
+      </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E59" t="s">
         <v>26</v>
@@ -1209,24 +1308,27 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B60" s="2">
-        <v>44620</v>
+        <v>44702</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D60" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E60" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="2">
+        <v>44702</v>
+      </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E61" t="s">
         <v>23</v>
@@ -1239,24 +1341,27 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B63" s="2">
-        <v>44611</v>
+        <v>44702</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E63" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="2">
+        <v>44702</v>
+      </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E64" t="s">
         <v>24</v>
@@ -1264,13 +1369,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B65" s="2">
-        <v>44612</v>
+        <v>44702</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D65" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="E65" t="s">
         <v>18</v>
@@ -1278,13 +1383,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B66" s="2">
-        <v>44693</v>
+        <v>44702</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E66" t="s">
         <v>22</v>
@@ -1297,24 +1402,27 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B68" s="2">
-        <v>44599</v>
+        <v>44702</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E68" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="2">
+        <v>44702</v>
+      </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E69" t="s">
         <v>19</v>
@@ -1322,24 +1430,27 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B70" s="2">
-        <v>44600</v>
+        <v>44702</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E70" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="2">
+        <v>44702</v>
+      </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E71" t="s">
         <v>15</v>
@@ -1455,7 +1566,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1486,7 +1597,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <f>33+16</f>
@@ -1505,7 +1616,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <f>26+8</f>
@@ -1524,7 +1635,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <f>22+11</f>
@@ -1543,7 +1654,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <f>22+16</f>
@@ -1562,7 +1673,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <f>17+6</f>
@@ -1581,7 +1692,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <f>14+9</f>
@@ -1600,7 +1711,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <f>12+1</f>
@@ -1619,7 +1730,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D9">
         <f>10+0</f>

--- a/data/azerbaijan_8.xlsx
+++ b/data/azerbaijan_8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fdduarte/Development/universidad/tesis/calendar-opt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275D4E6A-9D6D-DD47-B2FE-81AAC151FE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0405E85C-403C-4C44-8BC5-CFADB744E146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados" sheetId="1" r:id="rId1"/>
@@ -575,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
@@ -1565,8 +1565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C56967-9ADA-EB4F-8B61-1C0866C2CC20}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1604,7 +1604,7 @@
         <v>49</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H3" s="4"/>
     </row>
@@ -1642,7 +1642,7 @@
         <v>33</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -1661,7 +1661,7 @@
         <v>38</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -1680,7 +1680,7 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -1699,7 +1699,7 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -1718,7 +1718,7 @@
         <v>13</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -1737,7 +1737,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H9" s="4"/>
     </row>
